--- a/CURRENT WORK/SALT WORK - CODES/N = 4/NaCl - Done/Test_excelsheet for Nacl n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/NaCl - Done/Test_excelsheet for Nacl n=4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\FYP\Current Work\SALT WORK\N = 4\NaCl - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\NaCl - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB8D421-A969-4173-AC50-E9AE3313354A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2D3914-50FD-41F5-A80B-786935229E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" activeTab="3" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
   </bookViews>
   <sheets>
     <sheet name="For testing 12 unknown" sheetId="13" r:id="rId1"/>
@@ -511,22 +511,30 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Parity Plot For NaCl n=4</a:t>
+              <a:t>Fig 12. Parity Plot For NaCl n=4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26818543591644811"/>
+          <c:y val="0.91278292635777392"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -540,11 +548,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -555,7 +563,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13521458333333333"/>
+          <c:y val="6.8266435185185187E-2"/>
+          <c:w val="0.8232421234748587"/>
+          <c:h val="0.65796869656019052"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -966,11 +984,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -995,11 +1013,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1026,11 +1044,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1041,6 +1059,7 @@
         <c:crossAx val="1309551663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1309551663"/>
@@ -1056,11 +1075,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1072,6 +1091,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.11421273148148149"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1085,11 +1112,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1116,11 +1143,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1173,7 +1200,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -8907,38 +8939,38 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Temperature</a:t>
+              <a:t>Fig 11.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> vs </a:t>
+              <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" baseline="0">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ø</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> for NaCl n=4</a:t>
+              <a:rPr lang="en-IN"/>
+              <a:t>Temperature vs Ø for NaCl n=4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17559143518518519"/>
+          <c:y val="0.92016203703703703"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8952,11 +8984,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -11439,24 +11471,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1100">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Ø</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11473,11 +11500,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -11505,11 +11532,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -11535,11 +11562,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -11564,11 +11591,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -11595,11 +11622,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -11627,10 +11654,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14944121803779054"/>
-          <c:y val="0.18841795007642609"/>
-          <c:w val="0.24518779472341554"/>
-          <c:h val="0.11188580312596061"/>
+          <c:x val="0.17883935185185185"/>
+          <c:y val="0.12080231481481479"/>
+          <c:w val="0.36572013888888893"/>
+          <c:h val="0.13834421296296295"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11648,11 +11675,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -11692,7 +11719,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -16617,15 +16649,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>255270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>12291</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61452</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>29940</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16891,12 +16923,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.10676</cdr:x>
-      <cdr:y>0.13954</cdr:y>
+      <cdr:x>0.13229</cdr:x>
+      <cdr:y>0.06967</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96221</cdr:x>
-      <cdr:y>0.84878</cdr:y>
+      <cdr:x>0.95426</cdr:x>
+      <cdr:y>0.72584</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -16911,8 +16943,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="594360" y="506730"/>
-          <a:ext cx="4762500" cy="2575560"/>
+          <a:off x="571500" y="300990"/>
+          <a:ext cx="3550920" cy="2834640"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -17145,10 +17177,10 @@
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17604,8 +17636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2E136C-5B61-4A1C-88FB-5F22955323A1}">
   <dimension ref="A1:AR62"/>
   <sheetViews>
-    <sheetView topLeftCell="AP3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF20" sqref="BF20"/>
+    <sheetView tabSelected="1" topLeftCell="AN6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE11" sqref="BE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28780,8 +28812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D3D98D-AD52-4A55-9163-EA6265BC6833}">
   <dimension ref="A1:E262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31657,23 +31689,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c314ee91f914d6b9f0aecae541b0139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="230737ef2c937862393f49b6d101b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -31896,32 +31911,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31938,4 +31945,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/NaCl - Done/Test_excelsheet for Nacl n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/NaCl - Done/Test_excelsheet for Nacl n=4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\NaCl - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 4/NaCl - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF53A8-C19D-4577-9445-C0AA0185C25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EDBF53A8-C19D-4577-9445-C0AA0185C25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97ADAAE0-3DB7-4AD3-B10E-086742C24045}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="703" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
   </bookViews>
   <sheets>
     <sheet name="For testing 12 unknown" sheetId="13" r:id="rId1"/>
@@ -504,64 +504,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Fig 12. Parity Plot For NaCl n=4</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.26818543591644811"/>
-          <c:y val="0.91278292635777392"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -17442,44 +17385,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2E136C-5B61-4A1C-88FB-5F22955323A1}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BH8" sqref="BH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="5"/>
-    <col min="10" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="7.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="11.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="5"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="5"/>
-    <col min="25" max="25" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="5"/>
+    <col min="10" max="11" width="8.90625" style="2"/>
+    <col min="12" max="12" width="7.08984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="2"/>
+    <col min="14" max="14" width="11.90625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="5"/>
+    <col min="19" max="19" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.90625" style="5"/>
+    <col min="25" max="25" width="8.90625" style="5"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="5" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="11" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="5"/>
-    <col min="40" max="42" width="21.5546875" style="2" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" customWidth="1"/>
+    <col min="38" max="38" width="8.90625" style="5"/>
+    <col min="40" max="42" width="21.54296875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:47" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
@@ -17498,7 +17441,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="K2" s="3" t="s">
         <v>5</v>
@@ -17521,7 +17464,7 @@
       <c r="AG2" s="2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H3"/>
       <c r="K3" s="3" t="s">
         <v>6</v>
@@ -17544,7 +17487,7 @@
       <c r="AG3" s="2"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -17561,7 +17504,7 @@
       <c r="AG4" s="2"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -17570,7 +17513,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -17652,7 +17595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.046</v>
       </c>
@@ -17784,7 +17727,7 @@
         <v>0.93910000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.046</v>
       </c>
@@ -17922,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.0469999999999999</v>
       </c>
@@ -18068,7 +18011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.0489999999999999</v>
       </c>
@@ -18214,7 +18157,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.8620000000000001</v>
       </c>
@@ -18360,7 +18303,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.863</v>
       </c>
@@ -18506,7 +18449,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.8640000000000001</v>
       </c>
@@ -18652,7 +18595,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.8680000000000001</v>
       </c>
@@ -18798,7 +18741,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.508</v>
       </c>
@@ -18944,7 +18887,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.5089999999999999</v>
       </c>
@@ -19090,7 +19033,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.5089999999999999</v>
       </c>
@@ -19236,7 +19179,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.5099999999999998</v>
       </c>
@@ -19382,7 +19325,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.5110000000000001</v>
       </c>
@@ -19528,7 +19471,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2.5129999999999999</v>
       </c>
@@ -19674,7 +19617,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2.516</v>
       </c>
@@ -19820,7 +19763,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3.0329999999999999</v>
       </c>
@@ -19966,7 +19909,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.0339999999999998</v>
       </c>
@@ -20108,7 +20051,7 @@
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3.0350000000000001</v>
       </c>
@@ -20244,7 +20187,7 @@
         <v>1.6000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3.036</v>
       </c>
@@ -20380,7 +20323,7 @@
         <v>1.7000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3.036</v>
       </c>
@@ -20516,7 +20459,7 @@
         <v>1.8000000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3.0390000000000001</v>
       </c>
@@ -20648,7 +20591,7 @@
         <v>1.0491999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3.0430000000000001</v>
       </c>
@@ -20780,7 +20723,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3.7250000000000001</v>
       </c>
@@ -20912,7 +20855,7 @@
         <v>1.0887</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3.726</v>
       </c>
@@ -21044,7 +20987,7 @@
         <v>1.1037999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3.7309999999999999</v>
       </c>
@@ -21176,7 +21119,7 @@
         <v>1.1021000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3.738</v>
       </c>
@@ -21308,7 +21251,7 @@
         <v>1.0853999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4.883</v>
       </c>
@@ -21440,7 +21383,7 @@
         <v>1.1773</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4.8849999999999998</v>
       </c>
@@ -21572,7 +21515,7 @@
         <v>1.1841999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4.8860000000000001</v>
       </c>
@@ -21704,7 +21647,7 @@
         <v>1.1852</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4.8869999999999996</v>
       </c>
@@ -21836,7 +21779,7 @@
         <v>1.1827000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4.8899999999999997</v>
       </c>
@@ -21968,7 +21911,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4.8940000000000001</v>
       </c>
@@ -22100,7 +22043,7 @@
         <v>1.1655</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -22232,7 +22175,7 @@
         <v>1.1509</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5.1020000000000003</v>
       </c>
@@ -22364,7 +22307,7 @@
         <v>1.1949000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.1040000000000001</v>
       </c>
@@ -22496,7 +22439,7 @@
         <v>1.2022999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5.1079999999999997</v>
       </c>
@@ -22628,7 +22571,7 @@
         <v>1.1871</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5.1130000000000004</v>
       </c>
@@ -22760,7 +22703,7 @@
         <v>1.1748000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5.1189999999999998</v>
       </c>
@@ -22892,7 +22835,7 @@
         <v>1.1572</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5.6459999999999999</v>
       </c>
@@ -23024,7 +22967,7 @@
         <v>1.2384999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5.649</v>
       </c>
@@ -23156,7 +23099,7 @@
         <v>1.2398</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5.6520000000000001</v>
       </c>
@@ -23288,7 +23231,7 @@
         <v>1.2199</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5.6660000000000004</v>
       </c>
@@ -23420,7 +23363,7 @@
         <v>1.1889000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6.1020000000000003</v>
       </c>
@@ -23552,7 +23495,7 @@
         <v>1.2747999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>6.1029999999999998</v>
       </c>
@@ -23684,7 +23627,7 @@
         <v>1.2746999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.1040000000000001</v>
       </c>
@@ -23816,7 +23759,7 @@
         <v>1.2718</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6.1050000000000004</v>
       </c>
@@ -23948,7 +23891,7 @@
         <v>1.2637</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.1079999999999997</v>
       </c>
@@ -24080,7 +24023,7 @@
         <v>1.2503</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6.1120000000000001</v>
       </c>
@@ -24212,7 +24155,7 @@
         <v>1.2353000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6.117</v>
       </c>
@@ -24344,7 +24287,7 @@
         <v>1.2165999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6.12</v>
       </c>
@@ -24476,7 +24419,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>6.1210000000000004</v>
       </c>
@@ -24608,7 +24551,7 @@
         <v>1.2742</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6.1219999999999999</v>
       </c>
@@ -24740,7 +24683,7 @@
         <v>1.2719</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>6.1230000000000002</v>
       </c>
@@ -24872,7 +24815,7 @@
         <v>1.2626999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6.1260000000000003</v>
       </c>
@@ -25004,7 +24947,7 @@
         <v>1.2495000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6.13</v>
       </c>
@@ -25136,7 +25079,7 @@
         <v>1.2351000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>6.1349999999999998</v>
       </c>
@@ -25283,9 +25226,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0.166354</v>
       </c>
@@ -25293,7 +25236,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.161664</v>
       </c>
@@ -25301,7 +25244,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.15679399999999999</v>
       </c>
@@ -25309,7 +25252,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.15174399999999999</v>
       </c>
@@ -25317,7 +25260,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.14651500000000001</v>
       </c>
@@ -25325,7 +25268,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.14110500000000001</v>
       </c>
@@ -25333,7 +25276,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.135515</v>
       </c>
@@ -25341,7 +25284,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.129746</v>
       </c>
@@ -25349,7 +25292,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.123796</v>
       </c>
@@ -25357,7 +25300,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.11766699999999999</v>
       </c>
@@ -25365,7 +25308,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.111357</v>
       </c>
@@ -25373,7 +25316,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.104868</v>
       </c>
@@ -25381,7 +25324,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.8199099999999998E-2</v>
       </c>
@@ -25389,7 +25332,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7.5022500000000006E-2</v>
       </c>
@@ -25397,7 +25340,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8.4321599999999997E-2</v>
       </c>
@@ -25405,7 +25348,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7.7113399999999999E-2</v>
       </c>
@@ -25413,7 +25356,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6.9725899999999993E-2</v>
       </c>
@@ -25421,7 +25364,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6.2159499999999999E-2</v>
       </c>
@@ -25429,7 +25372,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4.04365E-2</v>
       </c>
@@ -25437,7 +25380,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.66723E-2</v>
       </c>
@@ -25445,7 +25388,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3.8449499999999998E-2</v>
       </c>
@@ -25453,7 +25396,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2.9701600000000002E-2</v>
       </c>
@@ -25461,7 +25404,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2.1536199999999998E-2</v>
       </c>
@@ -25469,7 +25412,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.2898099999999999E-2</v>
       </c>
@@ -25477,7 +25420,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.16370000000000001</v>
       </c>
@@ -25485,7 +25428,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.15389</v>
       </c>
@@ -25493,7 +25436,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.15493499999999999</v>
       </c>
@@ -25501,7 +25444,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.155998</v>
       </c>
@@ -25509,7 +25452,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.157079</v>
       </c>
@@ -25517,7 +25460,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.15817800000000001</v>
       </c>
@@ -25525,7 +25468,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.15929499999999999</v>
       </c>
@@ -25533,7 +25476,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.16042999999999999</v>
       </c>
@@ -25541,7 +25484,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.161583</v>
       </c>
@@ -25549,7 +25492,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.16561600000000001</v>
       </c>
@@ -25557,7 +25500,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.16514999999999999</v>
       </c>
@@ -25565,7 +25508,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.168878</v>
       </c>
@@ -25573,7 +25516,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.170157</v>
       </c>
@@ -25581,7 +25524,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.17276900000000001</v>
       </c>
@@ -25589,7 +25532,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.17410200000000001</v>
       </c>
@@ -25597,7 +25540,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.175453</v>
       </c>
@@ -25605,7 +25548,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.17682200000000001</v>
       </c>
@@ -25613,7 +25556,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.17820900000000001</v>
       </c>
@@ -25621,7 +25564,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.179614</v>
       </c>
@@ -25629,7 +25572,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.185054</v>
       </c>
@@ -25637,7 +25580,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18490500000000001</v>
       </c>
@@ -25645,7 +25588,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.18493999999999999</v>
       </c>
@@ -25653,7 +25596,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.18501300000000001</v>
       </c>
@@ -25661,7 +25604,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.185053</v>
       </c>
@@ -25669,7 +25612,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.185136</v>
       </c>
@@ -25677,7 +25620,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.18518000000000001</v>
       </c>
@@ -25685,7 +25628,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.185225</v>
       </c>
@@ -25693,7 +25636,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.18527299999999999</v>
       </c>
@@ -25701,7 +25644,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.18532100000000001</v>
       </c>
@@ -25709,7 +25652,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.18542400000000001</v>
       </c>
@@ -25717,7 +25660,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.185477</v>
       </c>
@@ -25725,7 +25668,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.185533</v>
       </c>
@@ -25733,7 +25676,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.18532199999999999</v>
       </c>
@@ -25741,7 +25684,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.18564800000000001</v>
       </c>
@@ -25749,7 +25692,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.18570800000000001</v>
       </c>
@@ -25757,7 +25700,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.18576899999999999</v>
       </c>
@@ -25765,7 +25708,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.185833</v>
       </c>
@@ -25773,7 +25716,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.18589700000000001</v>
       </c>
@@ -25781,7 +25724,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.186032</v>
       </c>
@@ -25789,7 +25732,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.18610099999999999</v>
       </c>
@@ -25797,7 +25740,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.18617300000000001</v>
       </c>
@@ -25805,7 +25748,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.18624499999999999</v>
       </c>
@@ -25813,7 +25756,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.186473</v>
       </c>
@@ -25821,7 +25764,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.186553</v>
       </c>
@@ -25829,7 +25772,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.18671599999999999</v>
       </c>
@@ -25837,7 +25780,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.18706100000000001</v>
       </c>
@@ -25845,7 +25788,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.18715200000000001</v>
       </c>
@@ -25853,7 +25796,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.18724399999999999</v>
       </c>
@@ -25861,7 +25804,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.18732599999999999</v>
       </c>
@@ -25869,7 +25812,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.18743299999999999</v>
       </c>
@@ -25877,7 +25820,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.187529</v>
       </c>
@@ -25885,7 +25828,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.18772800000000001</v>
       </c>
@@ -25893,7 +25836,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.187829</v>
       </c>
@@ -25901,7 +25844,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.188252</v>
       </c>
@@ -25909,7 +25852,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.188361</v>
       </c>
@@ -25917,7 +25860,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.188585</v>
       </c>
@@ -25925,7 +25868,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.18870000000000001</v>
       </c>
@@ -25933,7 +25876,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.18881600000000001</v>
       </c>
@@ -25941,7 +25884,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.18893299999999999</v>
       </c>
@@ -25949,7 +25892,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.189053</v>
       </c>
@@ -25957,7 +25900,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.18917300000000001</v>
       </c>
@@ -25965,7 +25908,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.18942000000000001</v>
       </c>
@@ -25973,7 +25916,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.18954499999999999</v>
       </c>
@@ -25981,7 +25924,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.18967200000000001</v>
       </c>
@@ -25989,7 +25932,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.189801</v>
       </c>
@@ -25997,7 +25940,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.18993199999999999</v>
       </c>
@@ -26005,7 +25948,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.19006400000000001</v>
       </c>
@@ -26013,7 +25956,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.190197</v>
       </c>
@@ -26021,7 +25964,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.188471</v>
       </c>
@@ -26029,7 +25972,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.190469</v>
       </c>
@@ -26037,7 +25980,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.190608</v>
       </c>
@@ -26045,7 +25988,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.190748</v>
       </c>
@@ -26053,7 +25996,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.190889</v>
       </c>
@@ -26061,7 +26004,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.19117700000000001</v>
       </c>
@@ -26069,7 +26012,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.19132399999999999</v>
       </c>
@@ -26077,7 +26020,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.191472</v>
       </c>
@@ -26085,7 +26028,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.19192500000000001</v>
       </c>
@@ -26093,7 +26036,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.192713</v>
       </c>
@@ -26101,7 +26044,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.19287599999999999</v>
       </c>
@@ -26109,7 +26052,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.19303999999999999</v>
       </c>
@@ -26117,7 +26060,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.19320499999999999</v>
       </c>
@@ -26125,7 +26068,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.19354099999999999</v>
       </c>
@@ -26133,7 +26076,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.193712</v>
       </c>
@@ -26141,7 +26084,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.193884</v>
       </c>
@@ -26149,7 +26092,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.19405700000000001</v>
       </c>
@@ -26157,7 +26100,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.19423199999999999</v>
       </c>
@@ -26165,7 +26108,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.194409</v>
       </c>
@@ -26173,7 +26116,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.19458700000000001</v>
       </c>
@@ -26181,7 +26124,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.194767</v>
       </c>
@@ -26189,7 +26132,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.19494900000000001</v>
       </c>
@@ -26197,7 +26140,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.195132</v>
       </c>
@@ -26205,7 +26148,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.19531699999999999</v>
       </c>
@@ -26213,7 +26156,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.19550300000000001</v>
       </c>
@@ -26221,7 +26164,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.195881</v>
       </c>
@@ -26229,7 +26172,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.196072</v>
       </c>
@@ -26237,7 +26180,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.196265</v>
       </c>
@@ -26245,7 +26188,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.19645899999999999</v>
       </c>
@@ -26253,7 +26196,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.196655</v>
       </c>
@@ -26261,7 +26204,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.196853</v>
       </c>
@@ -26269,7 +26212,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.19725300000000001</v>
       </c>
@@ -26277,7 +26220,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.19745499999999999</v>
       </c>
@@ -26285,7 +26228,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.197659</v>
       </c>
@@ -26293,7 +26236,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.19786500000000001</v>
       </c>
@@ -26301,7 +26244,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.198072</v>
       </c>
@@ -26309,7 +26252,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.19828100000000001</v>
       </c>
@@ -26317,7 +26260,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.198491</v>
       </c>
@@ -26325,7 +26268,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.19870299999999999</v>
       </c>
@@ -26333,7 +26276,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.19891700000000001</v>
       </c>
@@ -26341,7 +26284,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.199349</v>
       </c>
@@ -26349,7 +26292,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.19956699999999999</v>
       </c>
@@ -26357,7 +26300,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.20000899999999999</v>
       </c>
@@ -26365,7 +26308,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.20023199999999999</v>
       </c>
@@ -26373,7 +26316,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.20091100000000001</v>
       </c>
@@ -26381,7 +26324,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.20114099999999999</v>
       </c>
@@ -26389,7 +26332,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.201372</v>
       </c>
@@ -26397,7 +26340,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.20160500000000001</v>
       </c>
@@ -26405,7 +26348,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.20183899999999999</v>
       </c>
@@ -26413,7 +26356,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.202075</v>
       </c>
@@ -26421,7 +26364,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.20231299999999999</v>
       </c>
@@ -26429,7 +26372,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.20303499999999999</v>
       </c>
@@ -26437,7 +26380,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.20352500000000001</v>
       </c>
@@ -26445,7 +26388,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.20377200000000001</v>
       </c>
@@ -26453,7 +26396,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.20427100000000001</v>
       </c>
@@ -26461,7 +26404,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.20452300000000001</v>
       </c>
@@ -26469,7 +26412,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.20477699999999999</v>
       </c>
@@ -26477,7 +26420,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.20503199999999999</v>
       </c>
@@ -26485,7 +26428,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.205289</v>
       </c>
@@ -26493,7 +26436,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.206069</v>
       </c>
@@ -26501,7 +26444,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.20633199999999999</v>
       </c>
@@ -26509,7 +26452,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.206597</v>
       </c>
@@ -26517,7 +26460,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.20713100000000001</v>
       </c>
@@ -26525,7 +26468,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.207401</v>
       </c>
@@ -26533,7 +26476,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.207672</v>
       </c>
@@ -26541,7 +26484,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.20821899999999999</v>
       </c>
@@ -26549,7 +26492,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.20849500000000001</v>
       </c>
@@ -26557,7 +26500,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.20877299999999999</v>
       </c>
@@ -26565,7 +26508,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.20905199999999999</v>
       </c>
@@ -26573,7 +26516,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.20933299999999999</v>
       </c>
@@ -26581,7 +26524,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.209615</v>
       </c>
@@ -26589,7 +26532,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.209899</v>
       </c>
@@ -26597,7 +26540,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.21047199999999999</v>
       </c>
@@ -26605,7 +26548,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.21105099999999999</v>
       </c>
@@ -26613,7 +26556,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.21163599999999999</v>
       </c>
@@ -26621,7 +26564,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.21193200000000001</v>
       </c>
@@ -26629,7 +26572,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.21252699999999999</v>
       </c>
@@ -26637,7 +26580,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.21282699999999999</v>
       </c>
@@ -26645,7 +26588,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.21312800000000001</v>
       </c>
@@ -26653,7 +26596,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.21404300000000001</v>
       </c>
@@ -26661,7 +26604,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.214972</v>
       </c>
@@ -26669,7 +26612,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.215284</v>
       </c>
@@ -26677,7 +26620,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.21559900000000001</v>
       </c>
@@ -26685,7 +26628,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.21623200000000001</v>
       </c>
@@ -26693,7 +26636,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.21655199999999999</v>
       </c>
@@ -26701,7 +26644,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.21687200000000001</v>
       </c>
@@ -26709,7 +26652,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.217195</v>
       </c>
@@ -26717,7 +26660,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.21751899999999999</v>
       </c>
@@ -26725,7 +26668,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.218171</v>
       </c>
@@ -26733,7 +26676,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.2185</v>
       </c>
@@ -26741,7 +26684,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.218831</v>
       </c>
@@ -26749,7 +26692,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.219163</v>
       </c>
@@ -26757,7 +26700,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.219831</v>
       </c>
@@ -26765,7 +26708,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.220168</v>
       </c>
@@ -26773,7 +26716,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.22084699999999999</v>
       </c>
@@ -26781,7 +26724,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.221188</v>
       </c>
@@ -26789,7 +26732,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.221051</v>
       </c>
@@ -26797,7 +26740,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.22257099999999999</v>
       </c>
@@ -26805,7 +26748,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.22292000000000001</v>
       </c>
@@ -26813,7 +26756,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.22362399999999999</v>
       </c>
@@ -26821,7 +26764,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.22397800000000001</v>
       </c>
@@ -26829,7 +26772,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.224692</v>
       </c>
@@ -26837,7 +26780,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.225051</v>
       </c>
@@ -26845,7 +26788,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.225412</v>
       </c>
@@ -26853,7 +26796,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.225774</v>
       </c>
@@ -26861,7 +26804,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.22613800000000001</v>
       </c>
@@ -26869,7 +26812,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.224855</v>
       </c>
@@ -26877,7 +26820,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.22724</v>
       </c>
@@ -26885,7 +26828,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0.22798199999999999</v>
       </c>
@@ -26893,7 +26836,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0.228356</v>
       </c>
@@ -26901,7 +26844,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0.22873099999999999</v>
       </c>
@@ -26909,7 +26852,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0.22910800000000001</v>
       </c>
@@ -26917,7 +26860,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0.229486</v>
       </c>
@@ -26925,7 +26868,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0.22986599999999999</v>
       </c>
@@ -26947,12 +26890,12 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1.5902699999999999E-2</v>
       </c>
@@ -26960,7 +26903,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.15353E-2</v>
       </c>
@@ -26977,7 +26920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.9703E-2</v>
       </c>
@@ -26985,7 +26928,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.8424600000000003E-2</v>
       </c>
@@ -27005,7 +26948,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4.66723E-2</v>
       </c>
@@ -27025,7 +26968,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6.2159499999999999E-2</v>
       </c>
@@ -27045,7 +26988,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6.9725899999999993E-2</v>
       </c>
@@ -27065,7 +27008,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7.7113399999999999E-2</v>
       </c>
@@ -27085,7 +27028,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.4321599999999997E-2</v>
       </c>
@@ -27105,7 +27048,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.1350200000000006E-2</v>
       </c>
@@ -27125,7 +27068,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.8199099999999998E-2</v>
       </c>
@@ -27145,7 +27088,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.104868</v>
       </c>
@@ -27165,7 +27108,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.111357</v>
       </c>
@@ -27185,7 +27128,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.11766699999999999</v>
       </c>
@@ -27205,7 +27148,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.123796</v>
       </c>
@@ -27225,7 +27168,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.129746</v>
       </c>
@@ -27245,7 +27188,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.135515</v>
       </c>
@@ -27265,7 +27208,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.14110500000000001</v>
       </c>
@@ -27285,7 +27228,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.14651500000000001</v>
       </c>
@@ -27299,7 +27242,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.15174399999999999</v>
       </c>
@@ -27313,7 +27256,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.16042999999999999</v>
       </c>
@@ -27327,7 +27270,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.161583</v>
       </c>
@@ -27341,7 +27284,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.16275400000000001</v>
       </c>
@@ -27355,7 +27298,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.16394300000000001</v>
       </c>
@@ -27369,7 +27312,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.16514999999999999</v>
       </c>
@@ -27383,7 +27326,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.166375</v>
       </c>
@@ -27397,7 +27340,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.16761699999999999</v>
       </c>
@@ -27411,7 +27354,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.170157</v>
       </c>
@@ -27422,7 +27365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.171454</v>
       </c>
@@ -27430,7 +27373,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.17276900000000001</v>
       </c>
@@ -27438,7 +27381,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.17410200000000001</v>
       </c>
@@ -27446,7 +27389,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.175453</v>
       </c>
@@ -27454,7 +27397,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.17682200000000001</v>
       </c>
@@ -27462,7 +27405,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.179614</v>
       </c>
@@ -27470,7 +27413,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.179614</v>
       </c>
@@ -27478,7 +27421,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.184976</v>
       </c>
@@ -27486,7 +27429,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.18501400000000001</v>
       </c>
@@ -27494,7 +27437,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.185053</v>
       </c>
@@ -27502,7 +27445,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.18509400000000001</v>
       </c>
@@ -27510,7 +27453,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.18518000000000001</v>
       </c>
@@ -27518,7 +27461,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.185226</v>
       </c>
@@ -27526,7 +27469,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.18527299999999999</v>
       </c>
@@ -27534,7 +27477,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.18532199999999999</v>
       </c>
@@ -27542,7 +27485,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.18537200000000001</v>
       </c>
@@ -27550,7 +27493,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18542400000000001</v>
       </c>
@@ -27558,7 +27501,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.185477</v>
       </c>
@@ -27566,7 +27509,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.185533</v>
       </c>
@@ -27574,7 +27517,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.185589</v>
       </c>
@@ -27582,7 +27525,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.18564800000000001</v>
       </c>
@@ -27590,7 +27533,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.18570800000000001</v>
       </c>
@@ -27598,7 +27541,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.18576899999999999</v>
       </c>
@@ -27606,7 +27549,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.185833</v>
       </c>
@@ -27614,7 +27557,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.18589700000000001</v>
       </c>
@@ -27622,7 +27565,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.18596399999999999</v>
       </c>
@@ -27630,7 +27573,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.18617300000000001</v>
       </c>
@@ -27638,7 +27581,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.18624499999999999</v>
       </c>
@@ -27646,7 +27589,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.18632000000000001</v>
       </c>
@@ -27654,7 +27597,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.18639600000000001</v>
       </c>
@@ -27662,7 +27605,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.186553</v>
       </c>
@@ -27670,7 +27613,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.18671599999999999</v>
       </c>
@@ -27678,7 +27621,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.18679999999999999</v>
       </c>
@@ -27686,7 +27629,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.186885</v>
       </c>
@@ -27694,7 +27637,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.186973</v>
       </c>
@@ -27702,7 +27645,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.18706100000000001</v>
       </c>
@@ -27710,7 +27653,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.18715200000000001</v>
       </c>
@@ -27718,7 +27661,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.18724399999999999</v>
       </c>
@@ -27726,7 +27669,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.187337</v>
       </c>
@@ -27734,7 +27677,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.18743299999999999</v>
       </c>
@@ -27742,7 +27685,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.187529</v>
       </c>
@@ -27750,7 +27693,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.18762799999999999</v>
       </c>
@@ -27758,7 +27701,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.18772800000000001</v>
       </c>
@@ -27766,7 +27709,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.187829</v>
       </c>
@@ -27774,7 +27717,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.18803700000000001</v>
       </c>
@@ -27782,7 +27725,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.18814400000000001</v>
       </c>
@@ -27790,7 +27733,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.188252</v>
       </c>
@@ -27798,7 +27741,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.188585</v>
       </c>
@@ -27806,7 +27749,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.18870000000000001</v>
       </c>
@@ -27814,7 +27757,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.18893299999999999</v>
       </c>
@@ -27822,7 +27765,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.18929599999999999</v>
       </c>
@@ -27830,7 +27773,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.18942000000000001</v>
       </c>
@@ -27838,7 +27781,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.18954499999999999</v>
       </c>
@@ -27846,7 +27789,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.18967300000000001</v>
       </c>
@@ -27854,7 +27797,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.189801</v>
       </c>
@@ -27862,7 +27805,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.18993199999999999</v>
       </c>
@@ -27870,7 +27813,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.190197</v>
       </c>
@@ -27878,7 +27821,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.190333</v>
       </c>
@@ -27886,7 +27829,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.190748</v>
       </c>
@@ -27894,7 +27837,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.190889</v>
       </c>
@@ -27902,7 +27845,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.19103200000000001</v>
       </c>
@@ -27910,7 +27853,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.19117700000000001</v>
       </c>
@@ -27918,7 +27861,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.19132399999999999</v>
       </c>
@@ -27926,7 +27869,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.19162100000000001</v>
       </c>
@@ -27934,7 +27877,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.191772</v>
       </c>
@@ -27942,7 +27885,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.19192500000000001</v>
       </c>
@@ -27950,7 +27893,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.19223599999999999</v>
       </c>
@@ -27958,7 +27901,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.19239300000000001</v>
       </c>
@@ -27966,7 +27909,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.19287599999999999</v>
       </c>
@@ -27974,7 +27917,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.19303999999999999</v>
       </c>
@@ -27982,7 +27925,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.19320499999999999</v>
       </c>
@@ -27990,7 +27933,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.19337199999999999</v>
       </c>
@@ -27998,7 +27941,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.19354099999999999</v>
       </c>
@@ -28006,7 +27949,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.193712</v>
       </c>
@@ -28014,7 +27957,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.19423199999999999</v>
       </c>
@@ -28022,7 +27965,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.194409</v>
       </c>
@@ -28030,7 +27973,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.19458800000000001</v>
       </c>
@@ -28038,7 +27981,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.195132</v>
       </c>
@@ -28046,7 +27989,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.19531699999999999</v>
       </c>
@@ -28054,7 +27997,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.19569300000000001</v>
       </c>
@@ -28062,7 +28005,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.195881</v>
       </c>
@@ -28070,7 +28013,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.196072</v>
       </c>
@@ -28078,7 +28021,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.19645899999999999</v>
       </c>
@@ -28086,7 +28029,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.19786500000000001</v>
       </c>
@@ -28094,7 +28037,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.19828100000000001</v>
       </c>
@@ -28102,7 +28045,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.198491</v>
       </c>
@@ -28110,7 +28053,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.199349</v>
       </c>
@@ -28118,7 +28061,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.19956699999999999</v>
       </c>
@@ -28126,7 +28069,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.19978699999999999</v>
       </c>
@@ -28134,7 +28077,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.20000899999999999</v>
       </c>
@@ -28142,7 +28085,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.20023199999999999</v>
       </c>
@@ -28150,7 +28093,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.200457</v>
       </c>
@@ -28158,7 +28101,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.200683</v>
       </c>
@@ -28166,7 +28109,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.20091100000000001</v>
       </c>
@@ -28174,7 +28117,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.20114099999999999</v>
       </c>
@@ -28182,7 +28125,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.201372</v>
       </c>
@@ -28190,7 +28133,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.202075</v>
       </c>
@@ -28198,7 +28141,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.20231299999999999</v>
       </c>
@@ -28206,7 +28149,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.20255200000000001</v>
       </c>
@@ -28214,7 +28157,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.20352500000000001</v>
       </c>
@@ -28222,7 +28165,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.20377200000000001</v>
       </c>
@@ -28230,7 +28173,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.20477699999999999</v>
       </c>
@@ -28238,7 +28181,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.20503199999999999</v>
       </c>
@@ -28246,7 +28189,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.205289</v>
       </c>
@@ -28254,7 +28197,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.206069</v>
       </c>
@@ -28262,7 +28205,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.20633199999999999</v>
       </c>
@@ -28270,7 +28213,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.20686299999999999</v>
       </c>
@@ -28278,7 +28221,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.20713100000000001</v>
       </c>
@@ -28286,7 +28229,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.207401</v>
       </c>
@@ -28294,7 +28237,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.207672</v>
       </c>
@@ -28302,7 +28245,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.20794499999999999</v>
       </c>
@@ -28310,7 +28253,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.20849500000000001</v>
       </c>
@@ -28318,7 +28261,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.20905199999999999</v>
       </c>
@@ -28326,7 +28269,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.209615</v>
       </c>
@@ -28334,7 +28277,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.209899</v>
       </c>
@@ -28342,7 +28285,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.21018500000000001</v>
       </c>
@@ -28350,7 +28293,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.21105099999999999</v>
       </c>
@@ -28358,7 +28301,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.21134500000000001</v>
       </c>
@@ -28366,7 +28309,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.21163699999999999</v>
       </c>
@@ -28374,7 +28317,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.21193200000000001</v>
       </c>
@@ -28382,7 +28325,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.21252699999999999</v>
       </c>
@@ -28390,7 +28333,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.21282699999999999</v>
       </c>
@@ -28398,7 +28341,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.21343200000000001</v>
       </c>
@@ -28406,7 +28349,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.21373600000000001</v>
       </c>
@@ -28414,7 +28357,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.21435100000000001</v>
       </c>
@@ -28422,7 +28365,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.21465999999999999</v>
       </c>
@@ -28430,7 +28373,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.214972</v>
       </c>
@@ -28438,7 +28381,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.21559900000000001</v>
       </c>
@@ -28446,7 +28389,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.21655199999999999</v>
       </c>
@@ -28454,7 +28397,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.21687200000000001</v>
       </c>
@@ -28462,7 +28405,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.217195</v>
       </c>
@@ -28470,7 +28413,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.21784400000000001</v>
       </c>
@@ -28478,7 +28421,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.218171</v>
       </c>
@@ -28486,7 +28429,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.2185</v>
       </c>
@@ -28494,7 +28437,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.219163</v>
       </c>
@@ -28502,7 +28445,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.219496</v>
       </c>
@@ -28510,7 +28453,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.220168</v>
       </c>
@@ -28518,7 +28461,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.22050700000000001</v>
       </c>
@@ -28526,7 +28469,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.221188</v>
       </c>
@@ -28534,7 +28477,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.22153100000000001</v>
       </c>
@@ -28542,7 +28485,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.22187599999999999</v>
       </c>
@@ -28550,7 +28493,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.222223</v>
       </c>
@@ -28558,7 +28501,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.22257099999999999</v>
       </c>
@@ -28566,7 +28509,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.22292000000000001</v>
       </c>
@@ -28574,7 +28517,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.223271</v>
       </c>
@@ -28582,7 +28525,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.22362399999999999</v>
       </c>
@@ -28590,7 +28533,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.22397900000000001</v>
       </c>
@@ -28598,7 +28541,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.22433400000000001</v>
       </c>
@@ -28606,7 +28549,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.224692</v>
       </c>
@@ -28614,7 +28557,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.225412</v>
       </c>
@@ -28622,7 +28565,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.225774</v>
       </c>
@@ -28630,7 +28573,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.22613800000000001</v>
       </c>
@@ -28638,7 +28581,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.22687099999999999</v>
       </c>
@@ -28646,7 +28589,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.22761000000000001</v>
       </c>
@@ -28654,7 +28597,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.229051</v>
       </c>
@@ -28662,7 +28605,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.228356</v>
       </c>
@@ -28670,7 +28613,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.22910800000000001</v>
       </c>
@@ -28678,7 +28621,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.229486</v>
       </c>
@@ -28686,7 +28629,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.22986599999999999</v>
       </c>
@@ -28694,7 +28637,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.23024800000000001</v>
       </c>
@@ -28702,7 +28645,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.230631</v>
       </c>
@@ -28710,7 +28653,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.231016</v>
       </c>
@@ -28718,7 +28661,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.23179</v>
       </c>
@@ -28726,7 +28669,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.23218</v>
       </c>
@@ -28734,7 +28677,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.23335800000000001</v>
       </c>
@@ -28756,9 +28699,9 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -28766,7 +28709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.2937300000000001E-2</v>
       </c>
@@ -28780,7 +28723,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.1587200000000001E-2</v>
       </c>
@@ -28794,7 +28737,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.00571E-2</v>
       </c>
@@ -28808,7 +28751,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.8346999999999999E-2</v>
       </c>
@@ -28822,7 +28765,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4.6456999999999998E-2</v>
       </c>
@@ -28836,7 +28779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5.4386900000000002E-2</v>
       </c>
@@ -28850,7 +28793,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6.2136799999999999E-2</v>
       </c>
@@ -28864,7 +28807,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6.9706699999999996E-2</v>
       </c>
@@ -28878,7 +28821,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7.7096700000000004E-2</v>
       </c>
@@ -28892,7 +28835,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8.4306599999999995E-2</v>
       </c>
@@ -28906,7 +28849,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.1336500000000001E-2</v>
       </c>
@@ -28920,7 +28863,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.8186399999999993E-2</v>
       </c>
@@ -28934,7 +28877,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.104856</v>
       </c>
@@ -28948,7 +28891,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.111346</v>
       </c>
@@ -28962,7 +28905,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.117656</v>
       </c>
@@ -28976,7 +28919,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.12378599999999999</v>
       </c>
@@ -28990,7 +28933,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.12973599999999999</v>
       </c>
@@ -29004,7 +28947,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.13550599999999999</v>
       </c>
@@ -29018,7 +28961,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.141096</v>
       </c>
@@ -29032,7 +28975,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.146506</v>
       </c>
@@ -29046,7 +28989,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.15173600000000001</v>
       </c>
@@ -29060,7 +29003,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.18493200000000001</v>
       </c>
@@ -29074,7 +29017,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.18496799999999999</v>
       </c>
@@ -29088,7 +29031,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.185006</v>
       </c>
@@ -29102,7 +29045,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.18504499999999999</v>
       </c>
@@ -29116,7 +29059,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.185086</v>
       </c>
@@ -29130,7 +29073,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.18512799999999999</v>
       </c>
@@ -29144,7 +29087,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.18521799999999999</v>
       </c>
@@ -29158,7 +29101,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.18526500000000001</v>
       </c>
@@ -29172,7 +29115,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.18531400000000001</v>
       </c>
@@ -29186,7 +29129,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.185364</v>
       </c>
@@ -29200,7 +29143,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.185416</v>
       </c>
@@ -29214,7 +29157,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.18547</v>
       </c>
@@ -29228,7 +29171,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.185525</v>
       </c>
@@ -29242,7 +29185,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.185582</v>
       </c>
@@ -29256,7 +29199,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.18564</v>
       </c>
@@ -29270,7 +29213,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.1857</v>
       </c>
@@ -29284,7 +29227,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.18576200000000001</v>
       </c>
@@ -29298,7 +29241,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.18582499999999999</v>
       </c>
@@ -29312,7 +29255,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.18589</v>
       </c>
@@ -29326,7 +29269,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.18595600000000001</v>
       </c>
@@ -29340,7 +29283,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.18602399999999999</v>
       </c>
@@ -29354,7 +29297,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.18609400000000001</v>
       </c>
@@ -29368,7 +29311,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.186165</v>
       </c>
@@ -29382,7 +29325,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.18623799999999999</v>
       </c>
@@ -29396,7 +29339,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.18631200000000001</v>
       </c>
@@ -29410,7 +29353,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.186388</v>
       </c>
@@ -29424,7 +29367,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.18646599999999999</v>
       </c>
@@ -29438,7 +29381,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.18654499999999999</v>
       </c>
@@ -29452,7 +29395,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.18662599999999999</v>
       </c>
@@ -29466,7 +29409,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.18670800000000001</v>
       </c>
@@ -29480,7 +29423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.18679200000000001</v>
       </c>
@@ -29494,7 +29437,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.18687799999999999</v>
       </c>
@@ -29508,7 +29451,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.18696499999999999</v>
       </c>
@@ -29522,7 +29465,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.187054</v>
       </c>
@@ -29536,7 +29479,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.18723600000000001</v>
       </c>
@@ -29550,7 +29493,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.18733</v>
       </c>
@@ -29564,7 +29507,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.18742500000000001</v>
       </c>
@@ -29578,7 +29521,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.18752199999999999</v>
       </c>
@@ -29592,7 +29535,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.18762000000000001</v>
       </c>
@@ -29606,7 +29549,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.18772</v>
       </c>
@@ -29620,7 +29563,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.18782199999999999</v>
       </c>
@@ -29634,7 +29577,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.18792500000000001</v>
       </c>
@@ -29648,7 +29591,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.18803</v>
       </c>
@@ -29662,7 +29605,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.188136</v>
       </c>
@@ -29676,7 +29619,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.18824399999999999</v>
       </c>
@@ -29690,7 +29633,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.18835399999999999</v>
       </c>
@@ -29704,7 +29647,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.18846499999999999</v>
       </c>
@@ -29718,7 +29661,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.188578</v>
       </c>
@@ -29732,7 +29675,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.188692</v>
       </c>
@@ -29746,7 +29689,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.188808</v>
       </c>
@@ -29760,7 +29703,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.18892600000000001</v>
       </c>
@@ -29774,7 +29717,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.18904499999999999</v>
       </c>
@@ -29788,7 +29731,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.189166</v>
       </c>
@@ -29802,7 +29745,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.18928800000000001</v>
       </c>
@@ -29816,7 +29759,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.189412</v>
       </c>
@@ -29830,7 +29773,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.18953800000000001</v>
       </c>
@@ -29844,7 +29787,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.189665</v>
       </c>
@@ -29858,7 +29801,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.18979399999999999</v>
       </c>
@@ -29872,7 +29815,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.18992400000000001</v>
       </c>
@@ -29886,7 +29829,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.190056</v>
       </c>
@@ -29900,7 +29843,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.19019</v>
       </c>
@@ -29914,7 +29857,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.19032499999999999</v>
       </c>
@@ -29928,7 +29871,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.19046199999999999</v>
       </c>
@@ -29942,7 +29885,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.19059999999999999</v>
       </c>
@@ -29956,7 +29899,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.19073999999999999</v>
       </c>
@@ -29970,7 +29913,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.190882</v>
       </c>
@@ -29984,7 +29927,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.191025</v>
       </c>
@@ -29998,7 +29941,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.19117000000000001</v>
       </c>
@@ -30012,7 +29955,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.19131600000000001</v>
       </c>
@@ -30026,7 +29969,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.191464</v>
       </c>
@@ -30040,7 +29983,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.19161400000000001</v>
       </c>
@@ -30054,7 +29997,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.19176499999999999</v>
       </c>
@@ -30068,7 +30011,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.19191800000000001</v>
       </c>
@@ -30082,7 +30025,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.19207199999999999</v>
       </c>
@@ -30096,7 +30039,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.19222800000000001</v>
       </c>
@@ -30110,7 +30053,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.192386</v>
       </c>
@@ -30124,7 +30067,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.19254499999999999</v>
       </c>
@@ -30138,7 +30081,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.19270599999999999</v>
       </c>
@@ -30152,7 +30095,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.19286800000000001</v>
       </c>
@@ -30166,7 +30109,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.19303200000000001</v>
       </c>
@@ -30180,7 +30123,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.19319700000000001</v>
       </c>
@@ -30194,7 +30137,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.19336500000000001</v>
       </c>
@@ -30208,7 +30151,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.19353400000000001</v>
       </c>
@@ -30222,7 +30165,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.19370399999999999</v>
       </c>
@@ -30236,7 +30179,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.19387599999999999</v>
       </c>
@@ -30250,7 +30193,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.19405</v>
       </c>
@@ -30264,7 +30207,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.19422500000000001</v>
       </c>
@@ -30278,7 +30221,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.19440199999999999</v>
       </c>
@@ -30292,7 +30235,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.19458</v>
       </c>
@@ -30306,7 +30249,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.19475999999999999</v>
       </c>
@@ -30320,7 +30263,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.194942</v>
       </c>
@@ -30334,7 +30277,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.19512499999999999</v>
       </c>
@@ -30348,7 +30291,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.19531000000000001</v>
       </c>
@@ -30362,7 +30305,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.195496</v>
       </c>
@@ -30376,7 +30319,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.195684</v>
       </c>
@@ -30390,7 +30333,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.19587399999999999</v>
       </c>
@@ -30404,7 +30347,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.19606499999999999</v>
       </c>
@@ -30418,7 +30361,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.19625799999999999</v>
       </c>
@@ -30432,7 +30375,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.19645199999999999</v>
       </c>
@@ -30446,7 +30389,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.19664799999999999</v>
       </c>
@@ -30460,7 +30403,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.19684599999999999</v>
       </c>
@@ -30474,7 +30417,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.197045</v>
       </c>
@@ -30488,7 +30431,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.197246</v>
       </c>
@@ -30502,7 +30445,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.19744800000000001</v>
       </c>
@@ -30516,7 +30459,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.19765199999999999</v>
       </c>
@@ -30530,7 +30473,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.19785800000000001</v>
       </c>
@@ -30544,7 +30487,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.19827400000000001</v>
       </c>
@@ -30558,7 +30501,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.19848399999999999</v>
       </c>
@@ -30566,7 +30509,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.19869600000000001</v>
       </c>
@@ -30574,7 +30517,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.199125</v>
       </c>
@@ -30582,7 +30525,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.19934099999999999</v>
       </c>
@@ -30590,7 +30533,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.19955999999999999</v>
       </c>
@@ -30598,7 +30541,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.19978000000000001</v>
       </c>
@@ -30606,7 +30549,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.20000100000000001</v>
       </c>
@@ -30614,7 +30557,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.20022499999999999</v>
       </c>
@@ -30622,7 +30565,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.20044899999999999</v>
       </c>
@@ -30630,7 +30573,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.20067599999999999</v>
       </c>
@@ -30638,7 +30581,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.200904</v>
       </c>
@@ -30646,7 +30589,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.20113300000000001</v>
       </c>
@@ -30654,7 +30597,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.20136499999999999</v>
       </c>
@@ -30662,7 +30605,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.201597</v>
       </c>
@@ -30670,7 +30613,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.20183200000000001</v>
       </c>
@@ -30678,7 +30621,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.202068</v>
       </c>
@@ -30686,7 +30629,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.20230500000000001</v>
       </c>
@@ -30694,7 +30637,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.202545</v>
       </c>
@@ -30702,7 +30645,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.20278499999999999</v>
       </c>
@@ -30710,7 +30653,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.20302799999999999</v>
       </c>
@@ -30718,7 +30661,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.20327200000000001</v>
       </c>
@@ -30726,7 +30669,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.203517</v>
       </c>
@@ -30734,7 +30677,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.203764</v>
       </c>
@@ -30742,7 +30685,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.204013</v>
       </c>
@@ -30750,7 +30693,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.204264</v>
       </c>
@@ -30758,7 +30701,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.204516</v>
       </c>
@@ -30766,7 +30709,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.20476900000000001</v>
       </c>
@@ -30774,7 +30717,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.20502400000000001</v>
       </c>
@@ -30782,7 +30725,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.20528099999999999</v>
       </c>
@@ -30790,7 +30733,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.20554</v>
       </c>
@@ -30798,7 +30741,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.20580000000000001</v>
       </c>
@@ -30806,7 +30749,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.20606099999999999</v>
       </c>
@@ -30814,7 +30757,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.20632400000000001</v>
       </c>
@@ -30822,7 +30765,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.20658899999999999</v>
       </c>
@@ -30830,7 +30773,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.20685600000000001</v>
       </c>
@@ -30838,7 +30781,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.207124</v>
       </c>
@@ -30846,7 +30789,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.20739299999999999</v>
       </c>
@@ -30854,7 +30797,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.20766399999999999</v>
       </c>
@@ -30862,7 +30805,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.20793700000000001</v>
       </c>
@@ -30870,7 +30813,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.20821200000000001</v>
       </c>
@@ -30878,7 +30821,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.20848700000000001</v>
       </c>
@@ -30886,7 +30829,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.20876500000000001</v>
       </c>
@@ -30894,7 +30837,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.20904400000000001</v>
       </c>
@@ -30902,7 +30845,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.20960699999999999</v>
       </c>
@@ -30910,7 +30853,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.210177</v>
       </c>
@@ -30918,7 +30861,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.21046400000000001</v>
       </c>
@@ -30926,7 +30869,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.210753</v>
       </c>
@@ -30934,7 +30877,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.21104300000000001</v>
       </c>
@@ -30942,7 +30885,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.211335</v>
       </c>
@@ -30950,7 +30893,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.21162900000000001</v>
       </c>
@@ -30958,7 +30901,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.211924</v>
       </c>
@@ -30966,7 +30909,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.21222099999999999</v>
       </c>
@@ -30974,7 +30917,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.21251900000000001</v>
       </c>
@@ -30982,7 +30925,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.21281900000000001</v>
       </c>
@@ -30990,7 +30933,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.213121</v>
       </c>
@@ -30998,7 +30941,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.213424</v>
       </c>
@@ -31006,7 +30949,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.213729</v>
       </c>
@@ -31014,7 +30957,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.214035</v>
       </c>
@@ -31022,7 +30965,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.21434300000000001</v>
       </c>
@@ -31030,7 +30973,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.21465300000000001</v>
       </c>
@@ -31038,7 +30981,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.21496399999999999</v>
       </c>
@@ -31046,7 +30989,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.215277</v>
       </c>
@@ -31054,7 +30997,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.215591</v>
       </c>
@@ -31062,7 +31005,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.21590699999999999</v>
       </c>
@@ -31070,7 +31013,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.216225</v>
       </c>
@@ -31078,7 +31021,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.21654399999999999</v>
       </c>
@@ -31086,7 +31029,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.216865</v>
       </c>
@@ -31094,7 +31037,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.21718699999999999</v>
       </c>
@@ -31102,7 +31045,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.217837</v>
       </c>
@@ -31110,7 +31053,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.218164</v>
       </c>
@@ -31118,7 +31061,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.21849299999999999</v>
       </c>
@@ -31126,7 +31069,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0.21882299999999999</v>
       </c>
@@ -31134,7 +31077,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0.21915499999999999</v>
       </c>
@@ -31142,7 +31085,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0.21948899999999999</v>
       </c>
@@ -31150,7 +31093,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0.21982399999999999</v>
       </c>
@@ -31158,7 +31101,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0.220161</v>
       </c>
@@ -31166,7 +31109,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0.220499</v>
       </c>
@@ -31174,7 +31117,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>0.22083900000000001</v>
       </c>
@@ -31182,7 +31125,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>0.22117999999999999</v>
       </c>
@@ -31190,7 +31133,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>0.221524</v>
       </c>
@@ -31198,7 +31141,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>0.22186800000000001</v>
       </c>
@@ -31206,7 +31149,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0.222215</v>
       </c>
@@ -31214,7 +31157,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0.22256300000000001</v>
       </c>
@@ -31222,7 +31165,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0.222912</v>
       </c>
@@ -31230,7 +31173,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0.22326399999999999</v>
       </c>
@@ -31238,7 +31181,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>0.22361600000000001</v>
       </c>
@@ -31246,7 +31189,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>0.223971</v>
       </c>
@@ -31254,7 +31197,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>0.224327</v>
       </c>
@@ -31262,7 +31205,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>0.22468399999999999</v>
       </c>
@@ -31270,7 +31213,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>0.22504299999999999</v>
       </c>
@@ -31278,7 +31221,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>0.22540399999999999</v>
       </c>
@@ -31286,7 +31229,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>0.225767</v>
       </c>
@@ -31294,7 +31237,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>0.226131</v>
       </c>
@@ -31302,7 +31245,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0.226496</v>
       </c>
@@ -31310,7 +31253,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>0.22686300000000001</v>
       </c>
@@ -31318,7 +31261,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>0.22723199999999999</v>
       </c>
@@ -31326,7 +31269,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0.227602</v>
       </c>
@@ -31334,7 +31277,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>0.22797400000000001</v>
       </c>
@@ -31342,7 +31285,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>0.228348</v>
       </c>
@@ -31350,7 +31293,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>0.22872300000000001</v>
       </c>
@@ -31358,7 +31301,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>0.2291</v>
       </c>
@@ -31366,7 +31309,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0.22947799999999999</v>
       </c>
@@ -31374,7 +31317,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>0.22985800000000001</v>
       </c>
@@ -31382,7 +31325,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0.23024</v>
       </c>
@@ -31390,7 +31333,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0.23062299999999999</v>
       </c>
@@ -31398,7 +31341,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0.23100799999999999</v>
       </c>
@@ -31406,7 +31349,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0.23139399999999999</v>
       </c>
@@ -31414,7 +31357,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0.23178199999999999</v>
       </c>
@@ -31422,7 +31365,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>0.23217199999999999</v>
       </c>
@@ -31430,7 +31373,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>0.23256299999999999</v>
       </c>
@@ -31438,7 +31381,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>0.232956</v>
       </c>
@@ -31446,7 +31389,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>0.23335</v>
       </c>
@@ -31454,7 +31397,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>0.23374600000000001</v>
       </c>
@@ -31472,6 +31415,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c314ee91f914d6b9f0aecae541b0139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="230737ef2c937862393f49b6d101b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -31694,14 +31645,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -31712,6 +31655,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31730,23 +31690,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
   <ds:schemaRefs>
